--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1100599.588009826</v>
+        <v>1098220.663804822</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12935012.42822707</v>
+        <v>12935012.42822706</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>78.75193987460825</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>22.15546799834821</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851362</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>59.50286836346442</v>
       </c>
       <c r="S4" t="n">
-        <v>75.32106881022246</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>261.886126082014</v>
       </c>
       <c r="G5" t="n">
-        <v>133.2099892451624</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657088</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>72.08802744677311</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>94.41084736720764</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222606</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>54.05027546551498</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>152.8467119671858</v>
+        <v>188.5655211191235</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>135.5557107791343</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>111.2192114277998</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671011522</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>76.2766499139743</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>76.59791075150716</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>91.05778593246879</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>44.87559232694227</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U25" t="n">
-        <v>202.9133247598021</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462197</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.5844008505335</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>53.07327741456187</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.2811815126420993</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>62.36981422367011</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>56.04917322725648</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,19 +3478,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>185.0663491738892</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="38">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.66054613217656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>37.40501058442982</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1605.601998493313</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1236.639481552901</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>878.3737829461509</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>492.5855303479066</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>485.6400295987032</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839473</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3303.226561004779</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3303.226561004779</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>3049.696084278616</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2718.633196935045</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W2" t="n">
-        <v>2718.633196935045</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1992.201838557435</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686093</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064743</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080124</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373024</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>754.9746608886195</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="S4" t="n">
-        <v>754.9746608886195</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="T4" t="n">
-        <v>754.9746608886195</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="U4" t="n">
-        <v>754.9746608886195</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="V4" t="n">
-        <v>754.9746608886195</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="W4" t="n">
-        <v>754.9746608886195</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="X4" t="n">
-        <v>754.9746608886195</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y4" t="n">
-        <v>754.9746608886195</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>1859.132475219476</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281156</v>
+        <v>1490.169958279065</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744055</v>
+        <v>1131.904259672314</v>
       </c>
       <c r="E5" t="n">
-        <v>654.0504646744055</v>
+        <v>746.1160070740698</v>
       </c>
       <c r="F5" t="n">
-        <v>243.0645598847979</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2635.87164725941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2245.732315283598</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181855</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902786</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779428</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955497</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976393</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723583</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>139.3283057723583</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>78.3348699696229</v>
@@ -4729,46 +4729,46 @@
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490663</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2029.572515263131</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>831.0565485757129</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>831.0565485757129</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>680.9399091633771</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>533.026815580984</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>386.1368680830736</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>218.4340314577926</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.0565485757129</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.6725264685181</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406112</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
@@ -5230,19 +5230,19 @@
         <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.480314654151</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V13" t="n">
-        <v>1151.480314654151</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W13" t="n">
-        <v>862.0631446171906</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="X13" t="n">
-        <v>707.6725264685181</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.6725264685181</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417938</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.167399417938</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>206.1593008538303</v>
+        <v>675.661303923575</v>
       </c>
       <c r="C16" t="n">
-        <v>206.1593008538303</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>206.1593008538303</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>206.1593008538303</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>206.1593008538303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562362</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.655003217267</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T16" t="n">
-        <v>971.0535382402079</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U16" t="n">
-        <v>971.0535382402079</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V16" t="n">
-        <v>716.369050034321</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W16" t="n">
-        <v>426.9518799973604</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="X16" t="n">
-        <v>426.9518799973604</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.1593008538303</v>
+        <v>675.661303923575</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,19 +5531,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>607.3786564113038</v>
+        <v>460.8132148098913</v>
       </c>
       <c r="C19" t="n">
-        <v>607.3786564113038</v>
+        <v>460.8132148098913</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>460.8132148098913</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>312.9001212274982</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>312.9001212274982</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
         <v>1440.555541309953</v>
@@ -5701,22 +5701,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.480314654151</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V19" t="n">
-        <v>896.7958264482644</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="W19" t="n">
-        <v>607.3786564113038</v>
+        <v>642.461679640131</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3786564113038</v>
+        <v>642.461679640131</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.3786564113038</v>
+        <v>642.461679640131</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5732,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>751.2613239640567</v>
+        <v>576.7888583909286</v>
       </c>
       <c r="C22" t="n">
-        <v>751.2613239640567</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>601.144684551721</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>453.2315909693278</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>306.3416434714175</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>139.1455441862974</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>139.1455441862974</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731394</v>
+        <v>1129.437033731428</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391403</v>
+        <v>1546.846905391436</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100388</v>
+        <v>1916.376186100421</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673947</v>
+        <v>2209.05164167398</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400846</v>
+        <v>2328.24987640088</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400846</v>
+        <v>2261.204172653282</v>
       </c>
       <c r="S22" t="n">
-        <v>2145.39504205575</v>
+        <v>2078.349338308186</v>
       </c>
       <c r="T22" t="n">
-        <v>1925.793577078691</v>
+        <v>1858.747873331127</v>
       </c>
       <c r="U22" t="n">
-        <v>1925.793577078691</v>
+        <v>1569.672646675325</v>
       </c>
       <c r="V22" t="n">
-        <v>1671.109088872804</v>
+        <v>1314.988158469437</v>
       </c>
       <c r="W22" t="n">
-        <v>1381.691918835844</v>
+        <v>1025.570988432476</v>
       </c>
       <c r="X22" t="n">
-        <v>1153.702367937826</v>
+        <v>797.5814375344587</v>
       </c>
       <c r="Y22" t="n">
-        <v>932.9097887942964</v>
+        <v>576.7888583909286</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232836</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U25" t="n">
-        <v>1772.498126207679</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V25" t="n">
-        <v>1517.813638001792</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.396467964831</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>1000.406917066814</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>779.6143379232836</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,22 +6236,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.195150674524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263522</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356152</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232794</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408863</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>484.811296842976</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578559</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2264.108249235166</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>2009.423761029279</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1720.006590992318</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1492.017040094301</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093762</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,58 +6449,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3403484614396</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602305</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396418</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614396</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614396</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179095</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5477693179095</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4311299055737</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5180363231806</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6280888252702</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>150.4319895401501</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602305</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396418</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359457</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614396</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179095</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1977.461080510508</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.043910473548</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>363.7369613277355</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E43" t="n">
-        <v>363.7369613277355</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F43" t="n">
-        <v>363.7369613277355</v>
+        <v>380.8823046593499</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>213.6862053742298</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -9565,7 +9565,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042518781</v>
+        <v>58.59733042522237</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,19 +23470,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>72.86294342185138</v>
+        <v>37.14413426991365</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>31.69111031949353</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.30492686446904</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986316</v>
       </c>
       <c r="D19" t="n">
-        <v>72.33882310423391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>88.92622754076169</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>76.18903516615904</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>36.39024399162324</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U25" t="n">
-        <v>83.27114962944202</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.000252501561306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>114.173543684066</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>84.24553961896737</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016416</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>40.64330621514799</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>102.8897022617941</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920300.3688706554</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.368870655</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958532.9334857668</v>
+        <v>958532.9334857679</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>963645.8537610654</v>
+        <v>963645.8537610653</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>963645.8537610653</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>963645.8537610653</v>
+        <v>963645.8537610652</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>963645.8537610652</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>963645.8537610651</v>
+        <v>963645.8537610652</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>450359.7549792567</v>
       </c>
       <c r="F2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792565</v>
       </c>
       <c r="G2" t="n">
         <v>450359.7549792567</v>
       </c>
       <c r="H2" t="n">
-        <v>462487.4349852685</v>
+        <v>462487.434985269</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26338,22 +26338,22 @@
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405234</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405246</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405253</v>
-      </c>
       <c r="E4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>14243.58217073067</v>
+        <v>14243.58217073119</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26442,7 +26442,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26494,7 +26494,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1058176.412721075</v>
+        <v>-1058176.412721076</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065173</v>
+        <v>270568.333006518</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065176</v>
+        <v>270568.3330065174</v>
       </c>
       <c r="E6" t="n">
-        <v>23063.37513931026</v>
+        <v>22968.85660586423</v>
       </c>
       <c r="F6" t="n">
-        <v>348475.836946666</v>
+        <v>348381.3184132194</v>
       </c>
       <c r="G6" t="n">
-        <v>348475.8369466662</v>
+        <v>348381.3184132196</v>
       </c>
       <c r="H6" t="n">
-        <v>347121.3229906307</v>
+        <v>347079.5335006885</v>
       </c>
       <c r="I6" t="n">
-        <v>346940.1810259546</v>
+        <v>346905.4431005189</v>
       </c>
       <c r="J6" t="n">
-        <v>129408.978628677</v>
+        <v>129374.2407032413</v>
       </c>
       <c r="K6" t="n">
-        <v>346940.1810259544</v>
+        <v>346905.4431005189</v>
       </c>
       <c r="L6" t="n">
-        <v>346940.1810259547</v>
+        <v>346905.4431005189</v>
       </c>
       <c r="M6" t="n">
-        <v>261885.153090443</v>
+        <v>261850.4151650072</v>
       </c>
       <c r="N6" t="n">
-        <v>346940.1810259546</v>
+        <v>346905.443100519</v>
       </c>
       <c r="O6" t="n">
-        <v>346940.1810259547</v>
+        <v>346905.4431005188</v>
       </c>
       <c r="P6" t="n">
-        <v>346940.1810259545</v>
+        <v>346905.4431005189</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>332.1697857788452</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>87.03229378982763</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.486899575160351e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>29.42928430658286</v>
       </c>
       <c r="S4" t="n">
-        <v>114.4479565212194</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>144.9899196596975</v>
       </c>
       <c r="G5" t="n">
-        <v>277.711736408291</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>24.26439296306498</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>270.8620444037999</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194509</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>90.70473944880581</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28615,10 +28615,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28722,10 +28722,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="D19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-2.324792098722037e-14</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29448,7 +29448,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29955,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.969358092741459e-12</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>671.2522281007809</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319844</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319844</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>528.6559836563365</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965167874</v>
+        <v>306.3600965168218</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875399</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875399</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
